--- a/data/hotels_by_city/Dallas/Dallas_shard_58.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_58.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="547">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>culla18</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Psi9phi9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r579635188-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>Some friends and I were in town for the NFL Draft. We found an affordable stay not too far from the stadium. The front desk service were very friendly and they accommodated our request for an early check in. They also allowed us to view the room before finalizing the paperwork. They were very friendly and we found ourselves engaging in a wonderful conversation. The rooms were nice and clean and modern. My only gripe was that the house cleaning service did not stop by our room to clean or provide additional towels. Also if you plan on sleeping on the pull sofa, expect a restless night because the mattress pad was very thin. More</t>
   </si>
   <si>
+    <t>Heidi M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r568892530-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>kubtan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r505308197-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>The hotel is clean and comfortable. We stayed in one bedroom suite for an extend ed period and overall it is cozy and comfortable. We had a kitchenette with full fridge. Washer/Dryers are free wit a small exercise room. We could hear our neighboring suite but nothing so noisy. We stayed in the smoking floor, because the other on bedrooms were all taken. We could smell cigarettes in our suite more at night than during the day. Internet was not reliable and kept disconnecting. We had to log back in every time we reentered the hotel. The hotel staff, especially Jason, Armena, Raven and Mike are all helpful and cordial. We wished there was a bigger formal lobby area, and a business office. There is a nice pantry in the washing room which has decent prices and covers essentials pretty neatly. The cleaning staff are very good at what they do keeping the hotel fresh and clean. The location is great, close to UTD, DFW, Las Colinas, and HWY 635. ample parking around. There is a DFW Shuttle. If you arrange IHG member you get a 2:30pm late checkout. The AC in our suite was not sufficient for the sitting area and the bedroom. The AC had a smell and probably needed cleaning. Bathroom needs a suction fan to reduce the vapor. It was expensive for a 2 star and we recommend negotiating with sales if you have an extended...The hotel is clean and comfortable. We stayed in one bedroom suite for an extend ed period and overall it is cozy and comfortable. We had a kitchenette with full fridge. Washer/Dryers are free wit a small exercise room. We could hear our neighboring suite but nothing so noisy. We stayed in the smoking floor, because the other on bedrooms were all taken. We could smell cigarettes in our suite more at night than during the day. Internet was not reliable and kept disconnecting. We had to log back in every time we reentered the hotel. The hotel staff, especially Jason, Armena, Raven and Mike are all helpful and cordial. We wished there was a bigger formal lobby area, and a business office. There is a nice pantry in the washing room which has decent prices and covers essentials pretty neatly. The cleaning staff are very good at what they do keeping the hotel fresh and clean. The location is great, close to UTD, DFW, Las Colinas, and HWY 635. ample parking around. There is a DFW Shuttle. If you arrange IHG member you get a 2:30pm late checkout. The AC in our suite was not sufficient for the sitting area and the bedroom. The AC had a smell and probably needed cleaning. Bathroom needs a suction fan to reduce the vapor. It was expensive for a 2 star and we recommend negotiating with sales if you have an extended stay. More</t>
   </si>
   <si>
+    <t>Carol D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r499116831-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>Working in the area for 30 days. Basic suite with comfortable bed, good AC-important in Texas- and basic kitchen with fridge, microwave, dishwasher, and 2 burner stove. Basic dinner service for 2. Once a week cleaning but, extra towels, linens, etc. easily swapped out at front desk if needed. About 15 minutes from DFW with a shuttle bus. Free washers and dryers and small "cupboard" if you forget toothpaste, etc. Pet friendly (deposit required). Great staff at front desk!!! Recommend rooms that don't overlook the parking lot. They face South making the room pretty hot by the end of the day despite having the AC full blast. Grocery, Target and CVS all within a short drive as are multiple restaurants and fast food shops. Lobby has a desktop and printer available to guests and front desk can do faxing by request. Nothing fancy but, clean, friendly staff and pleasant place to stay. Slight discounts available on room rates for extended stays.More</t>
   </si>
   <si>
+    <t>will g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r458463589-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Subhadip S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r452230900-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Huy1270</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r449656961-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>We chose this hotel because it's not far from Love field airport and it has all the amenities we need, kitchenette, frig, microwave, etc....When we checked in , the lady front desk gave us a unit top floor , room is a smoking room, we could not stand the smell so I asked for another one. This time we got a unit on first floor.Room size is average, bath room is large, full kitchen is a plus even though we did not cook anything but it got all things we need, big frig, microwave.I would stay here again.We just stay a short time before head to airport early morning so we did not check out other facility.More</t>
   </si>
   <si>
+    <t>OnTheGo M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r446928039-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>This is home away from home.  Very happy when I saw my room, full kitchen, full standup refrigerator dishes, silverware, oven and dvd player.  You cannot ask for more in a hotel.  The staff was friendly. If you wanted to go out and purchase something and cook it at the room this place has everything you need.</t>
   </si>
   <si>
+    <t>peteroo820</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r421647166-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -367,6 +397,9 @@
   </si>
   <si>
     <t>Your room has an electronic sensor which kicks on the AC when you walk in your room. It takes about 2 1/2 hours for your room temp to drop from 77 to 73, as long as you don't leave the room. The rooms are basic with almost full kitchen, desk area with desk chair, TVs with average cable choices, gas grills outside come in handy. No maid service, laundry (sheets &amp; towels) exchanged at front desk upon request. Make your own bed, No breakfast, just a newspaper. Parking is free, halls are quiet. Once you stay here for a week and get your bill, you wonder why you didn't pay a little more elsewhere to get full daily housekeeping service, a hot breakfast and happy hour. More</t>
+  </si>
+  <si>
+    <t>Megan J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r415492468-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -400,6 +433,9 @@
 Here's a tip I've learned in my marketing career: The customer is always right. Try changing your staff's attitudes, considering the guests are the ones paying THEIR SALARIES. Superior customer service goes a long way in retaining guests, and you won't have any negative reviews to...Where do I start? I never write bad reviews on hotels or restaurants, but after the horrible service I had here, I will never be staying at Candlewood Suites or any other hotel in their chain ever again. I had to go to the front desk a total of 7 times during my 5 night stay to get my door card rescanned, because they chased me down for payments PRIOR TO the end of my stay and locked me out if I didn't pay for the previous night's stay, at a minimum. The walls are paper-thin and I heard every little movement my neighbor made in his kitchen area. The front desk staff was very unwelcoming when I questioned my bill (I was promised a specific rate and had to fiht it when I was overcharged). All I wanted was a nice hotel to work out of, before I had to fly back to Chicago for a wedding. I have also read all the reviews about this hotel on this website, and it's very clear through Candlewood's staff responses that they are always "on the defensive" when anyone writes them a negative online review. Here's a tip I've learned in my marketing career: The customer is always right. Try changing your staff's attitudes, considering the guests are the ones paying THEIR SALARIES. Superior customer service goes a long way in retaining guests, and you won't have any negative reviews to worry about if you listen to them.More</t>
   </si>
   <si>
+    <t>Renie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r414405123-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -418,6 +454,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Darrell F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r409652330-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -433,6 +472,9 @@
     <t>This hotel is very well maintained, the staff are super friendly, the rooms are nice, modern and clean. The location is just off of Highway 114 and easy on easy off. I highly recommend this hotel to anyone staying in the North Dallas area. This hotel offers a shuttle service within 5 miles of the hotel. Several restaurants in the area deliver, and there are quite a few in the immediate area that do not deliver, but are in close proximity to the hotel. This Candlewood as all do offers a free exercise room and free laundry. I highly recommend this hotel!</t>
   </si>
   <si>
+    <t>Jovellelee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r385091571-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -460,6 +502,9 @@
     <t>Bed and pillows are comfortable, kitchen adequately stocked, shower has good supply of hot water and great water pressure......if you will need to use the internet then stay some place else where you have a connection without fighting with their ISP constantly on the phone, numerous times, EVERYDAY that you are here while the employee at the front desk tells you that it's working just fine and you can come downstairs and sit in the lobby to do what you need to do.  BS....when I make a reservation to stay someplace that offers free wifi, I expect it to be usable because we all know it isn't free,...we are paying the bill....I didn't give them a little of my payment for the room and then make them chase me around for hours trying to get the rest of it....I expect to get what I pay for without having to be inconvenienced, just like I did not inconvenience them by making my payment. And it is not just at 'peak' times, unless you consider 3 am a peak time!  Calling their ISP does not resolve anything at all.  The air conditioning is not adequate at all...the temperature is set on 60, you cannot change it and it is still too hot in the room and the temperature in the hallway is set on 85....it feels like an oven.  I am not an overweight person nor do I have any other physical...Bed and pillows are comfortable, kitchen adequately stocked, shower has good supply of hot water and great water pressure......if you will need to use the internet then stay some place else where you have a connection without fighting with their ISP constantly on the phone, numerous times, EVERYDAY that you are here while the employee at the front desk tells you that it's working just fine and you can come downstairs and sit in the lobby to do what you need to do.  BS....when I make a reservation to stay someplace that offers free wifi, I expect it to be usable because we all know it isn't free,...we are paying the bill....I didn't give them a little of my payment for the room and then make them chase me around for hours trying to get the rest of it....I expect to get what I pay for without having to be inconvenienced, just like I did not inconvenience them by making my payment. And it is not just at 'peak' times, unless you consider 3 am a peak time!  Calling their ISP does not resolve anything at all.  The air conditioning is not adequate at all...the temperature is set on 60, you cannot change it and it is still too hot in the room and the temperature in the hallway is set on 85....it feels like an oven.  I am not an overweight person nor do I have any other physical ailment that would cause me to be overheated for no reason. I realize It's summer and hot, once again, I paid for an air conditioned room that allows me to be comfortable, especially at night while I'm trying to sleep.  I will NEVER stay here again and I will certainly advise everyone else not to stay here as well.More</t>
   </si>
   <si>
+    <t>Christina G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r380105260-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -478,6 +523,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r372229848-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -499,6 +547,9 @@
     <t>Overall I think Candlewood Suites gets a bad rap, some may be worth a bad review but this one No!  We reserved our room based on the good reviews and they were not wrong.  Our room was exceptionally clean and the layout was great with lots of room. . This one truly lives up to its reviews.  Reviews are very important at this time of internet usage/social media and it appears that this facility strives to keep their hotel clean and modern.  I am sure that most miss the breakfast aspect at this hotel but the room and kitchen far exceeds our wants.  I travel a lot for business and this hotel will be a go to for future trips out of DFW airport.  Thanks staff and housekeeping for your good work!!More</t>
   </si>
   <si>
+    <t>SuzanaAthayde</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r369845395-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -526,6 +577,9 @@
     <t>I had an amazon order delivered at the hotel but I never received it.I am still today waiting a answer about my emails!!I had a toilet clogged but my apartment was not cleanedShuttle was not available(I emailed the front desk Manager before to confirm)More</t>
   </si>
   <si>
+    <t>johnbcobb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r365859600-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -544,6 +598,9 @@
     <t>Recently, I had the opportunity to stay here with my family. I was attending a function at the University of Dallas. It was close to the University and I really liked that. The parking lot was a little tight for a bigger vehicle in front because everyone seemed to park there. However, there was plenty of parking in back and that made my stay more pleasurable. The roll-away mattresses were a little dated and don't provide much in the way of back support so if you're travelling with a large group and people have bad backs, I would recommend that you get a second room and don't get a roll-away. Bathroom was clean. Plenty of towels provided. There were only two trash cans in the room. I wish there was a third. That way the kitchen area was covered. Pets friendly. Good ground maintenance. I WOULD STAY HERE AGAIN.More</t>
   </si>
   <si>
+    <t>TexasBoss903</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r361620204-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -562,6 +619,9 @@
     <t>The staff was great. Stacy (I think that was his name) got me checked in fast. For whatever reason I was being a nitpicker the next morning when I talked to Sherri (I think that's her name). I had a headache. Lol she was so awesome and her kindness went along way in making my day better. They were out of Tylenol but she found some and called my room and let me know. No charge for the Tylenol or the coke which wasn't necessary but she insisted. I highly recommend this hotel. The class act staff is enough to make it worth your stay. You'll definitely be treated great. More</t>
   </si>
   <si>
+    <t>John H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r351318882-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -580,6 +640,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Jackson1679</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r346705996-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -604,6 +667,9 @@
     <t>Nice motel. Great location. Easy access to major thoroughfares. Good part of town. Good eats and large grocery within three miles. Friendly staff. Comfortable beds. Clean room. I am not a big fan of the Candlewood Suites, but this was one of the best that I have stayed in. I recommend it. More</t>
   </si>
   <si>
+    <t>Courtney L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r345091516-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -619,6 +685,9 @@
     <t xml:space="preserve">This may have been my first stay at a candlewood suites.  I checked in late and returned my second night late at night. The young lady who worked the desk was friendly and helpful.  My room was clean and comfortable but the ac/heating unit was soooo loud. </t>
   </si>
   <si>
+    <t>Giacomo C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r332594684-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -646,6 +715,9 @@
     <t>When I booked at Las Colinas, everything was fully booked. I don't know what was going on. I was very lucky that they still had a room at this hotel. Actually it is not a real hotel, it is more a suite place, with bed and kitchenette in the same room.I was missing the breakfast, which is an important side of the business travel, but I was happy with the choice and thankful to the staff that had found me a room.Very clean place, very polite people, smiling and happy to serve you. Highly recommended for longer stays, when you can also cook.More</t>
   </si>
   <si>
+    <t>Oscar R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r328231310-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -661,6 +733,9 @@
     <t>This is a very great option for your close to the airport (DFW) needs. Mike at the Front Desk was great at check in and the room was excellent. The Cupboard is a good fall back for your food needs with out having to leave the hotel! But if you need/want to leave the hotel, there is a great Brazilian steakhouse right around the corner.</t>
   </si>
   <si>
+    <t>Marie d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r312992603-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -679,6 +754,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>riderofthestorm0609</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r298980618-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -697,6 +775,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>flgirl82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r291508550-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -715,6 +796,9 @@
     <t>Booked a long weekend at the Candlewood Suites.  From the time I checked in until checkout it was a great stay.  The staff was very professional, friendly and efficient.  I stayed in a one bedroom suite.  Two things I look for in a hotel is cleanliness and security.  I felt very secure here.  Also, the room was spotless.  All of the finishes appeared to be new and modern.  The kitchenette had everything I needed (and more).  The bathroom was a nice size and the towels were nice and soft.  The bed was extremely comfortable.  It was a very relaxing and peaceful weekend.  The hotel is situated in a central location very close to the airport and lots of restaurants and shopping.  This is a great choice for a hotel, especially for longer stays! Highly recommend!More</t>
   </si>
   <si>
+    <t>msc829</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r275007102-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -733,6 +817,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Tony R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r260020983-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -751,6 +838,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>a b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r250201170-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -778,12 +868,18 @@
     <t>Do not stay here if you wish to have a clean room.  Towels, bedding and furniture were filthy.  When I told the desk clerk, he told me I would still be charged for the room because I may have just used it for the hour.  It was insulting and I was staying there with my sister.  As tired as we were, we had to find another hotel.  My credit card was still charged even though I was there for only about a half hour.  Still waiting for the refund!More</t>
   </si>
   <si>
+    <t>Vin0dh13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r231245734-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
     <t>231245734</t>
   </si>
   <si>
+    <t>ChipTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r222764762-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -805,6 +901,9 @@
     <t>I stayed here over an August weekend for a sports and fitness competition going on at the nearby Irving Convention Center.  As I needed to prepare my own meals, I was looking for a hotel with a full kitchen near the Convention Center.  By and large, the hotel met what would be expected for this level hotel.  Rooms look like they have been updated recently.  As such, the bathroom was clean (clean grout on the floors and bath/shower tiles), as well as the kitchen area.  Some of the work seemed a little shoddy -- the cabinet doors in the kitchen for example were loose and one was crooked.  One of the chairs in the room showed a lot of wear and tear, but otherwise, the furniture was in good condition.  I stayed on the 2nd floor not too far from the elevator, but the room was fairly quiet, so that was a plus.  Staff at check-in/check-out was friendly.  Room had free wi-fi, which worked the whole time without issue.More</t>
   </si>
   <si>
+    <t>Geeta_huh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r218616071-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -832,6 +931,9 @@
     <t>Stayed for over 2.5 months on business travel. An excellent experience, cordial and helpful staff. Perfectly armed kitchen. Weekly room service was just apt. Requests were accomodated with a smile! Kudos!More</t>
   </si>
   <si>
+    <t>Deana G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r207423955-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -859,6 +961,9 @@
     <t>Oh my gosh!  This is a GREAT Hotel for those who love anything golf!  Close to major courses to watch major events.....and for those who play.....golf EVERYWHERE!  Excellent location, excellent staff.....nearby restaurants and nightclubs.....clean, comfortable.  Definitely will be back!More</t>
   </si>
   <si>
+    <t>Frank A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r203989886-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -883,6 +988,9 @@
     <t>If you can live with once a week housekeeping (we came in on Monday so we were good), it's a good place. Quiet, close to business/attractions, restaurants, easy on/off of highways. Newly appointed room furnishings. More</t>
   </si>
   <si>
+    <t>git-r-dan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r202386078-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -910,6 +1018,9 @@
     <t>As a catastrophe adjuster who stays in a lot of different hotels, good and bad, this one was excellent.  This hotel offers a very nice workout room, free washers and dryers, daily USA today and coffee.  The view out the window was pretty stellar considering other places I've been, looking at a vast countryside with a quiet commuter train passing through about every 30 minutes.  The staff was always very congenial and always offered to help with any problem that came up.  The maintenance man, Jose, came immediately to replace a noisy refrigerator and within a few minutes it was done.  You could really tell this man enjoyed his job and life.  The wireless internet was fast enough to stream my Slingbox back at home in HD which was a big deal for me.  All in all, it was a very nice stay.More</t>
   </si>
   <si>
+    <t>Cameron C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r201438895-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -937,6 +1048,9 @@
     <t>I don't know why they call these "suites", they are "studios".  This hotel tends to overbook -- the night I checked in they were overbooked by 3 rooms and had to stick me in an accessibility "suite" right next to the front desk.  The staff there didn't seem to do anything to minimize the volume of conversations, regardless of the hour.  They said they wouldn't have anything else available for 2 nights.Housekeeping only comes once a week, which isn't so bad if you can clean up after yourself. It just didn't have a welcoming feeling.More</t>
   </si>
   <si>
+    <t>Yorkie1948</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r199857926-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -958,6 +1072,9 @@
     <t>Stayed for 3 days whilst in the Dallas area and was really pleased I had chosen this hotel. On arrival Juana greeted me with a warm welcome and as a platinum member upgraded me, which was most welcome and told me all I needed to know about the hotel and area. The Suite I had was excellent plenty of room, comfy bed, nice bathroom, big lounge with TV in lounge and bedroom and the Kitchen was well equipped. The fitness room was one of the best I have seen and great for my morning workout. The laundry room was excellent and free and also the Candlewood Shop was well equipped. The staff were brilliant for my whole stay and really would return here again.More</t>
   </si>
   <si>
+    <t>Rodger C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r193615353-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -985,6 +1102,9 @@
     <t>I had my transcontinental trip started out from San Jose, the stopover location is...Dallas. Just for a two-day sight-seeing and visit my former employer. So I booked this Candlewood Suites with my IHG points (Yes, I paid nothing but points.) I got myself a spacious one-bed mini apartment suite, with well-equipped kitchenette (basically everything including the kitchen sink). Bed is comfortable and the service is average by US standard, no complaint from me. But to me, who never experienced laundromat in China, I found the self-service laundry machine at Ground Floor was definitely save my day (and night).More</t>
   </si>
   <si>
+    <t>Lbeard1864</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r189392725-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1003,6 +1123,9 @@
     <t>I have to say we got a exceptional rate at Christmas time here. Nice room and I was able to take my dogs. Be aware you do have to pay for the dogs though and it's not bad. I enjoyed my visit but the bed was very uncomfortable. We had a queen and it was way to small. Will opt for 2 doubles or a king if possible. The place is clean and good coffee. I really liked that we could cook our food in the room. Saved on eating out expenses. This Candlewood Suites is in a great location also.More</t>
   </si>
   <si>
+    <t>nvenky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r182628331-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1145,9 @@
   </si>
   <si>
     <t>I liked the Candlewood Suites at Las Colinas, Dallas for multiple reasons.- Well appointed rooms - good for a long stay. It is equipped with a neat kitchen to cook my own stuff. Very convenient.- Close to nearby business offices - they offer a shuttle drop Mon-Fri within 5 miles, that was very convenient.- The staff is very friendly, very helpful and courteous.- The hotel is close to a small shopping center and few restaurants - so if you want a change of food choices, there are plenty around.- The hotel is situated close to a residential neighborhood, so one can take long walks in the morning and evening. The weather was great when I was in Dallas, and hence it was great walking in the evening.- It is just 15 mins away from the DFW airport - very convenient. They call a taxi guy who comes within 5-10 mins.Negatives - The air conditioner was very noisy - it took some time to get used to it. In fact I switched it off some nights so I could sleep.More</t>
+  </si>
+  <si>
+    <t>Meredith R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r179105416-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -1061,6 +1187,9 @@
 I had one bad experience with one front desk clerk.  She refused to help me transfer the confirmation number to my name and to my IHG rewards account.  However, I went back down 2 hours later and another staff member was working, who was extremely helpful...I was preparing for the worst and hoping for the best when I learned my coworker booked this hotel for our week in DFW.  The reviews have been pretty bad.  But I was pleasantly surprised, as there were only a few annoyances.The good:   The rooms.  They're huge.  They're the size of a small one bedroom apartment. And there are nice touches throughout including: plenty of outlets built in to the nightstand, two closets, bathroom storage, and a large work table/dining table that separates the kitchen from the living room. The recent remodel served this property well.  I did not have any problems with noise.  I had rooms on either side of me and rooms below and above me.  I really didn't hear anything.  The bed was EXTREMELY soft and comfortable.  Just like my bed at home.And the location was great.  So many restaurants nearby.The bad:Again, like so many hotels in this class, the internet sucks.  You can access it fine from 4pm to 6pm, but forget it after that.  There are too many people trying to use it.  They need to invest in more than one connection for the hotel. I had one bad experience with one front desk clerk.  She refused to help me transfer the confirmation number to my name and to my IHG rewards account.  However, I went back down 2 hours later and another staff member was working, who was extremely helpful and got everything switched over correctly.I also did not like the fitness room/pantry/laundry room combination.  It was annoying to have people coming in and out to do their laundry while I was on the treadmill.The ugly:The treadmills.  They were pretty old.  But they were jerky.  This could easily turn into a safety issue and then lead to a liability.  I really think management needs to have them looked at, or get them replaced.All in all, it was a good experience.  I would stay here again.More</t>
   </si>
   <si>
+    <t>Erivan T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r171025466-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1088,6 +1217,9 @@
     <t>I was in the city for business, and my opnion about this hotel is: Noisy. My room air conditioning unit, that you cannot turn off, makes a lot of noise. It was very hot there(July), so I had to tolerate the noise. The housekeeping services happens only on Mondays...You have to stay with trash and dirt linens and towels for a week. Also, you have no privacy. The housekeepers, or someone else who has the room keys, even with the " No service needed"' or No disturb sign on the door, simply opens the door of your room and enter, without let you have time to say no! And, after inform the situation to the manager, the problem occurred again. The commom areas had a string cigar smell, and the carpets was dirty. I' will not come back!More</t>
   </si>
   <si>
+    <t>aligobs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r165297688-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1109,6 +1241,9 @@
     <t>As a business traveler I have bounced around to various extended stay hotels in the Las Colinas area trying to find the "homiest" place for the best price.  I finally landed on Candlewood Suites in the Las Colinas area.  Once I stayed here I haven't changed since.  The staff is super friendly, they even store stuff for me over the weekends so I don't have to haul as much back and forth.  I do get the one bedroom suite which provides a separate living area with a couch, recliner and large flat screen TV in both the living room and bedroom.  I have a full size kitchen with large fridge and stovetop.  You would say most places have this now but the rooms have all been upgraded recently and have a luxury feel without a luxury price.  Also, it is super clean.  Anyone that has to stay in extended stay hotels know that most rooms really show the wear and tear but not this place.  Over time it may change obviously but right now it feels like new rooms each time I stay.  If I have anything negative to say it's that I did try the gym equipment and both treadmills were in need of overhauling.  Also, no pool which in Irving in summer would be really nice.  Otherwise I have nothing negative to say.More</t>
   </si>
   <si>
+    <t>jo_coch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r164526862-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1133,6 +1268,9 @@
     <t>There's nothing "wrong" with this small suite hotel - it seemed very new, with decent modern finishes. It's in a good location, close to the freeways and dining and shopping. The queen room was very compact but well organized and equipped for one person on an extended stay.  There is only weekly maid service - go to the front desk if you need more towels.  There is a full kitchen (with an extremely LOUD, older fridge in my room).  As a single business traveller, it suited my needs for the 2 days I was there since my usual place was full.  I felt "trapped" in my small room though because the ONLY common area is a 20 x 20 room that held the 4 workout machines, the walk-up computer desk, the "pantry store", the laundry facilities and a tiny 4 seater dinnette. In 2 days - I saw only the front desk person upon check-in (that i had to call on a courtesy phone to come out of the back)...and caught a glimpse of another person walking down the narrow halls.More</t>
   </si>
   <si>
+    <t>wferriter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r161570241-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1160,6 +1298,9 @@
     <t>I got stranded in Dallas after the recent tornadoes and thunderstorms and by luck, got a room here.  It sure beat spending the night in the airport.  The room was tastefully decorated.  The bathroom was nicely tiled, the leather recliner was a nice touch, the sofa bed in the living room was comfortable, and the separate master bedroom suite was great.  I was also pretty impressed by the size of the washing machine and workout area.  If I were staying for a longer period of time, that would have been great.But I was stuck in a smoking room -- which I didn't even know that hotels had anymore -- and it was nauseating.  Couldn't sleep all night because of the smell even though I had the windows flung completely open.  If you're a smoker, this probably won't be a problem.  Everyone else should be SURE they get a non-smoking room.More</t>
   </si>
   <si>
+    <t>HHopeItHHelps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r159741753-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1187,6 +1328,9 @@
     <t>Compared to other Candlewood Suites, I rated this one inferior.. No manager's reception (there isn't a lobby only a very small room for guests to crowd in to check in. One pack of coffee in the room and was told I would have to pay for more. Enjoy single tea packs that are normally available? there was a charge as well... Business center printer had no paper, when I inquired I was given 5 sheets. I ask for non smoking and didn't get it. No receipt under the door, had to stand in line in the "little cubby hole lobby" to get a copy. While these things may sound petty, they are the little things I enjoy about staying at Candlewood Suites. Area was very nice and there are many hotels adjacent to this one, may be worth checking those out..More</t>
   </si>
   <si>
+    <t>ANTHONY Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r154648808-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1205,6 +1349,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Traveler252525</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r145200276-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1226,6 +1373,9 @@
     <t>This was been one of the VERY BEST hotels we have recently experienced! Very quiet hotel with exceptionally clean rooms, clean hallways (shiny floors) and beautifully appointed remodeled rooms with the nicest decor we have seen compared to other Candlewood Suites!The staff was very friendly!The rooms are not only well appointed but there is obvious care taken in making a guest experience the BEST from the internet codes posted in the room to the superior cleanliness to the obvious adjusting of guest room doors so they don't slam! (As a road warrior it is unusual to stay in a hotel where one doesn't experience the slamming of doors!)This will be our choice whenever we frequent this area!It is very obvious that they go above and beyond to make it a memorable stay!The management and staff have made this our choice in Dallas!More</t>
   </si>
   <si>
+    <t>srg22801</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r144696808-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1247,6 +1397,9 @@
     <t>Hotel is average quality for this price range, and staff is nice.  Location is pretty good, with a couple of restaurants withing walking distance.  It was just repainted on the exterior in the last couple of weeks, so it looks good from the outside.Inside, it's old, appearance mostly due to the carpeting, and the terrible odor as soon as you walk in. The lobby is just a wide section of hall in front of the main desk. There's not much room to pass anyone checking in if they have any luggage to speak of. The rooms have been remodeled, so they look a lot better than the common areas, and are laid out pretty well. The laundry/pantry/exercise area is nice, and free laundry is an appreciated plus. The only issue I had with my room was the toaster did not toast both side of the bread. A new one has been requested, but not received after two weeks. The Internet...well it sounds good "high speed" and all, unless you need to actually use it. In the afternoons, evenings, it is almost impossible to get anything accomplished, even loading basic pages like CNN, the Weather Channel, etc. can take a LONG time, so use the coffee maker and relax. It's a bandwidth issue...if the hotel parking lot is full, forget it, because everyone else is using it.More</t>
   </si>
   <si>
+    <t>Valerie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r142999022-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1265,6 +1418,9 @@
     <t>The hotel was great, and the service was better. Chris was amazing. He did everything he could to accomodate us on our whole 5 day stay, and even when we got there early, he did what he could to let us still check in. We brought our 12lb Shih Tzu. She was able to stay in the room while we went to places around the area which was a great help especially since she isn't a barker. The only thing I would complain about is that the walls are thin. I was able to hear the guy next door putting dishes in his sink, but it was never any time that interfered with our sleep, but after sleeping there for three nights, both of our backs were bothering us, but we still aren't sure if that was from riding Go Karts all day. The rooms were newly renovated and they looked great. We used the HDMI hook up on the tv and cooked french toast on the stove top. It doesn't have an oven. The location is near a railroad track next to it, but I never heard any trains. They were painting the building and put plastic on the outside of our windows so my dog couldn't look outside. They also put plastic bags and tape around our cars so I guess paint didn't get on them. Other than that, the location was great. They even offer free access...The hotel was great, and the service was better. Chris was amazing. He did everything he could to accomodate us on our whole 5 day stay, and even when we got there early, he did what he could to let us still check in. We brought our 12lb Shih Tzu. She was able to stay in the room while we went to places around the area which was a great help especially since she isn't a barker. The only thing I would complain about is that the walls are thin. I was able to hear the guy next door putting dishes in his sink, but it was never any time that interfered with our sleep, but after sleeping there for three nights, both of our backs were bothering us, but we still aren't sure if that was from riding Go Karts all day. The rooms were newly renovated and they looked great. We used the HDMI hook up on the tv and cooked french toast on the stove top. It doesn't have an oven. The location is near a railroad track next to it, but I never heard any trains. They were painting the building and put plastic on the outside of our windows so my dog couldn't look outside. They also put plastic bags and tape around our cars so I guess paint didn't get on them. Other than that, the location was great. They even offer free access to a nice fitness center near by if their fitness center doesn't have everything you want. Overall we loved our stay.More</t>
   </si>
   <si>
+    <t>miwe_85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r137483017-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1283,6 +1439,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>April B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r130645195-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1322,6 +1481,9 @@
     <t>This is not a quite location. Not only can you hear the road noise but the place is under construction/remodeling. I should have taken the hint when I got my Priority Member gift and it included ear-plugs. Construction noise started early and ended late. They were hanging new pictures in renovated rooms at 8PM. My room had new carpet installed and the smell of chemicals was horrible. I had to sleep with the window open. The TV did not have a remote.Good thing I set my cell phone alarm because I didn't get my wake up call. My room did not receive room service between nights. The front desk is rarely staffed after 9:00PM The work out room was closed and there was no coffee or newspapers in the lobby area. Also I had to wait in line to check out in the morning instead of getting my bill in my room. This hotel has a long way to go to improve guest service for business travelers.The one nice thing I can say is the renovated rooms look nice and the room was clean.More</t>
   </si>
   <si>
+    <t>MrsLatts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r122630315-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1343,6 +1505,9 @@
     <t>We had 2 nights here before flying out of the USA at the end of our holiday so wanted to be near the airport.  We checked in late at night and found the night staff to be helpfull and got to our room pretty efficiently.  The rooms themselves were a great size and very clean and had everything we needed.  The hotel was undergoing a renovation which they were very apologetic about but apart from one of the lifts being used for this and some plastic laying about it didn't have any impact on us.  The free laundry facilities were excellent as was the 'pantry' to be basic food as there is nothing within walking distance of the hotel if you need something to eat.  We requested a late check out and staff went out of their way to accomodate us which was very helpfull.  The only issue I had is I had booked here as when I had searched it came up as having a shuttle which I assumed was to the airport but it is only for limited times and within a 5mile radius of the hotel.  Not a huge issue as a cab ride was quite inexpensive.More</t>
   </si>
   <si>
+    <t>Fay397</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r121497798-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1379,6 +1544,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Monte G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r116492566-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1397,6 +1565,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>harikrish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r114628506-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1415,6 +1586,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>chundell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r65387039-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1433,6 +1607,9 @@
     <t>February 2010</t>
   </si>
   <si>
+    <t>Soozie238</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r46240969-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1451,6 +1628,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>travelersolo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r31039494-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1470,6 +1650,9 @@
   </si>
   <si>
     <t>This was like a home away from home.  Like a previous poster, my room reminded me of my first apartment, a very comfortable efficiency.  I loved having the fully equipped kitchen, including a kitchen sink!  Finally a hotel were I didn't have to wash my dishes in the bathroom sink.  It was a spacious room, with a very spacious kitchen and bathroom, lots of storage space, dishes for two, a full-sized refrigerator.  No breakfast, no pool, but I was more interested in the room and the laundry convenience.  Very comfortable bed, with lots of pillows, wonderfully floffy towels, and two waste baskets!  Enough table space for my computer and my paperwork.  Three chairs were in the room.  I didn't request the suite with the sofa - didn't need it.  I liked it so much I booked another stay at Candlewood in another city.  Highly recommended.  Only problem was the difficulty in finding the place, they only give directions online for people arriving at the airports, completely forgetting about those arriving by private transportation - car, other personal vehicle.  Some highway directions would be nice.More</t>
+  </si>
+  <si>
+    <t>see-the-country</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r3794947-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -1998,43 +2181,47 @@
       <c r="A2" t="n">
         <v>36615</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>123977</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2052,50 +2239,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36615</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>123978</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2109,50 +2300,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36615</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>23387</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2170,50 +2365,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36615</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>123979</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2227,50 +2426,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36615</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>11791</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2290,50 +2493,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36615</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>123980</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2351,50 +2558,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36615</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>123981</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2414,50 +2625,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36615</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>64968</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2475,50 +2690,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36615</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>123982</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2536,50 +2755,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36615</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>123983</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2591,56 +2814,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36615</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>61293</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2658,56 +2885,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="X12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36615</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>118978</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2727,50 +2958,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36615</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>123984</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2788,50 +3023,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36615</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>123985</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2849,56 +3088,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36615</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>40714</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2912,50 +3155,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36615</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>508</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2973,50 +3220,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36615</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>123986</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3034,56 +3285,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="X18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36615</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>123987</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3101,50 +3356,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36615</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>123988</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3158,50 +3417,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36615</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C21" t="s">
+        <v>199</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3221,41 +3484,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36615</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>123989</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
@@ -3272,56 +3539,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="X22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36615</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>13325</v>
+      </c>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3335,50 +3606,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36615</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>123990</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3394,56 +3669,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="X24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36615</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>43930</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3457,50 +3736,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36615</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>123991</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3520,50 +3803,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36615</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>123992</v>
+      </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3583,50 +3870,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36615</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>123993</v>
+      </c>
+      <c r="C28" t="s">
+        <v>251</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3646,50 +3937,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36615</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>123994</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="O29" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3709,50 +4004,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36615</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>30351</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3772,50 +4071,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36615</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>28855</v>
+      </c>
+      <c r="C31" t="s">
+        <v>272</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="J31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="K31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3831,38 +4134,42 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="X31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="Y31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36615</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>123995</v>
+      </c>
+      <c r="C32" t="s">
+        <v>282</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s"/>
       <c r="K32" t="s"/>
@@ -3879,51 +4186,52 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36615</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>123996</v>
+      </c>
+      <c r="C33" t="s">
+        <v>285</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="J33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -3943,50 +4251,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36615</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>123997</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4004,56 +4316,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="X34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="Y34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36615</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>46848</v>
+      </c>
+      <c r="C35" t="s">
+        <v>303</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4075,56 +4391,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="X35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="Y35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36615</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>87058</v>
+      </c>
+      <c r="C36" t="s">
+        <v>313</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="J36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="K36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4136,56 +4456,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="X36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36615</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>123998</v>
+      </c>
+      <c r="C37" t="s">
+        <v>322</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4207,56 +4531,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="X37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36615</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>51767</v>
+      </c>
+      <c r="C38" t="s">
+        <v>332</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="J38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="O38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4278,56 +4606,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="X38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="Y38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36615</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>123999</v>
+      </c>
+      <c r="C39" t="s">
+        <v>342</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="J39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="K39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="O39" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4349,56 +4681,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="X39" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="Y39" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36615</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>124000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>350</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="J40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="O40" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4420,47 +4756,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="X40" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="Y40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36615</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>124001</v>
+      </c>
+      <c r="C41" t="s">
+        <v>360</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="J41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="K41" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -4477,56 +4817,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="X41" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="Y41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36615</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>124002</v>
+      </c>
+      <c r="C42" t="s">
+        <v>367</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="J42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="O42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4550,50 +4894,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36615</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>23372</v>
+      </c>
+      <c r="C43" t="s">
+        <v>375</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="J43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="K43" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="L43" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="O43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4617,50 +4965,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36615</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>124003</v>
+      </c>
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="K44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="L44" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="O44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -4682,56 +5034,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="X44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="Y44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36615</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>124004</v>
+      </c>
+      <c r="C45" t="s">
+        <v>393</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="J45" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="K45" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4755,50 +5111,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36615</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>124005</v>
+      </c>
+      <c r="C46" t="s">
+        <v>401</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="J46" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="K46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="L46" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4820,56 +5180,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="X46" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="Y46" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36615</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>124006</v>
+      </c>
+      <c r="C47" t="s">
+        <v>410</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="J47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="K47" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="L47" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="O47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4891,56 +5255,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="X47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="Y47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36615</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>124007</v>
+      </c>
+      <c r="C48" t="s">
+        <v>420</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="J48" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="K48" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="L48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="O48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -4962,56 +5330,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="X48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="Y48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36615</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>124008</v>
+      </c>
+      <c r="C49" t="s">
+        <v>430</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="J49" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="K49" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="L49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="O49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5035,50 +5407,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36615</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>124009</v>
+      </c>
+      <c r="C50" t="s">
+        <v>437</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="J50" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="K50" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="L50" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="O50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5102,50 +5478,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36615</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>124010</v>
+      </c>
+      <c r="C51" t="s">
+        <v>445</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="J51" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="K51" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="L51" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="O51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5169,50 +5549,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36615</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>60801</v>
+      </c>
+      <c r="C52" t="s">
+        <v>453</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="J52" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="K52" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="L52" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="O52" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5236,50 +5620,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36615</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>124011</v>
+      </c>
+      <c r="C53" t="s">
+        <v>460</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="J53" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="K53" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="L53" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="O53" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5303,50 +5691,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36615</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>13559</v>
+      </c>
+      <c r="C54" t="s">
+        <v>467</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="J54" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="K54" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="L54" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="O54" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5370,7 +5762,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55">
@@ -5383,37 +5775,37 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="J55" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="K55" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="L55" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="O55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5437,50 +5829,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36615</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>124012</v>
+      </c>
+      <c r="C56" t="s">
+        <v>481</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="J56" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="K56" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="L56" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="O56" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5504,50 +5900,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36615</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>124013</v>
+      </c>
+      <c r="C57" t="s">
+        <v>489</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="J57" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="K57" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="L57" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="O57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5571,7 +5971,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58">
@@ -5584,37 +5984,37 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="J58" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="K58" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="L58" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="O58" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5634,50 +6034,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36615</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>124014</v>
+      </c>
+      <c r="C59" t="s">
+        <v>502</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="J59" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="K59" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="L59" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="O59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -5697,50 +6101,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36615</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>124015</v>
+      </c>
+      <c r="C60" t="s">
+        <v>509</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="J60" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="K60" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="L60" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="O60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -5760,50 +6168,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36615</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>124016</v>
+      </c>
+      <c r="C61" t="s">
+        <v>516</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="J61" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="K61" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="L61" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5827,50 +6239,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36615</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>124017</v>
+      </c>
+      <c r="C62" t="s">
+        <v>523</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="J62" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="K62" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="L62" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="O62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5894,50 +6310,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36615</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>124018</v>
+      </c>
+      <c r="C63" t="s">
+        <v>530</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="J63" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="K63" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="L63" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="O63" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5961,41 +6381,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36615</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>124019</v>
+      </c>
+      <c r="C64" t="s">
+        <v>538</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="J64" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="K64" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="L64" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -6020,13 +6444,13 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="X64" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="Y64" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_58.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_58.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="506">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,99 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>culla18</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r601618608-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>109049</t>
+  </si>
+  <si>
+    <t>601618608</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Great get away!!</t>
+  </si>
+  <si>
+    <t>The hotel and staff was very friendly and clean. I would recommend this hotel to family and friends. We will be back to visit. We had fun at god beach and relaxing in the pools was very refreshing and cool.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r579635188-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>579635188</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>Some friends and I were in town for the NFL Draft. We found an affordable stay not too far from the stadium. The front desk service were very friendly and they accommodated our request for an early check in. They also allowed us to view the room before finalizing the paperwork. They were very friendly and we found ourselves engaging in a wonderful conversation. The rooms were nice and clean and modern. My only gripe was that the house cleaning service did not stop by our room to clean or provide additional towels. Also if you plan on sleeping on the pull sofa, expect a restless night because the mattress pad was very thin. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Some friends and I were in town for the NFL Draft. We found an affordable stay not too far from the stadium. The front desk service were very friendly and they accommodated our request for an early check in. They also allowed us to view the room before finalizing the paperwork. They were very friendly and we found ourselves engaging in a wonderful conversation. The rooms were nice and clean and modern. My only gripe was that the house cleaning service did not stop by our room to clean or provide additional towels. Also if you plan on sleeping on the pull sofa, expect a restless night because the mattress pad was very thin. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r589363950-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>589363950</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>This Candlewood Suites is Top Tier and Good Value</t>
+  </si>
+  <si>
+    <t>For this price range, I felt this Candlewood Suites hotel was really top tier -- an excellent value.  But most importantly, it was super clean, had friendly and helpful staff,  and wonderful beds for a great sleep.  And it was close to the Toyota Music Factory for my concert.  Well lit outside, so I felt safe returning at a late hour.  Will definitely plan to stay here again.     It's a good, basic suite set-up, although I did not need the kitchenette.  Noticed it had a "lending pantry" that even had a blender in it... that was a new concept (for me).  Only stayed one night, but I would definitely return.  Close to some good restaurants, too.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>For this price range, I felt this Candlewood Suites hotel was really top tier -- an excellent value.  But most importantly, it was super clean, had friendly and helpful staff,  and wonderful beds for a great sleep.  And it was close to the Toyota Music Factory for my concert.  Well lit outside, so I felt safe returning at a late hour.  Will definitely plan to stay here again.     It's a good, basic suite set-up, although I did not need the kitchenette.  Noticed it had a "lending pantry" that even had a blender in it... that was a new concept (for me).  Only stayed one night, but I would definitely return.  Close to some good restaurants, too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r588562567-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>588562567</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Peaceful place to stay</t>
+  </si>
+  <si>
+    <t>Very silent atmosphere suitable for family stay. restaurants are  closer. Breakfast is not free still they provide option to get what you want and pay s you wish. Ideal place to stay for Travelers from India since Desi restaurants and grocery stores are very close.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r580140085-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
-    <t>56032</t>
-  </si>
-  <si>
-    <t>109049</t>
-  </si>
-  <si>
     <t>580140085</t>
   </si>
   <si>
@@ -180,36 +258,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Psi9phi9</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r579635188-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
-  </si>
-  <si>
-    <t>579635188</t>
-  </si>
-  <si>
-    <t>05/12/2018</t>
-  </si>
-  <si>
-    <t>Friendly staff</t>
-  </si>
-  <si>
-    <t>Some friends and I were in town for the NFL Draft. We found an affordable stay not too far from the stadium. The front desk service were very friendly and they accommodated our request for an early check in. They also allowed us to view the room before finalizing the paperwork. They were very friendly and we found ourselves engaging in a wonderful conversation. The rooms were nice and clean and modern. My only gripe was that the house cleaning service did not stop by our room to clean or provide additional towels. Also if you plan on sleeping on the pull sofa, expect a restless night because the mattress pad was very thin. MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t>Some friends and I were in town for the NFL Draft. We found an affordable stay not too far from the stadium. The front desk service were very friendly and they accommodated our request for an early check in. They also allowed us to view the room before finalizing the paperwork. They were very friendly and we found ourselves engaging in a wonderful conversation. The rooms were nice and clean and modern. My only gripe was that the house cleaning service did not stop by our room to clean or provide additional towels. Also if you plan on sleeping on the pull sofa, expect a restless night because the mattress pad was very thin. More</t>
-  </si>
-  <si>
-    <t>Heidi M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r568892530-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -231,9 +279,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>kubtan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r505308197-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -252,15 +297,9 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>The hotel is clean and comfortable. We stayed in one bedroom suite for an extend ed period and overall it is cozy and comfortable. We had a kitchenette with full fridge. Washer/Dryers are free wit a small exercise room. We could hear our neighboring suite but nothing so noisy. We stayed in the smoking floor, because the other on bedrooms were all taken. We could smell cigarettes in our suite more at night than during the day. Internet was not reliable and kept disconnecting. We had to log back in every time we reentered the hotel. The hotel staff, especially Jason, Armena, Raven and Mike are all helpful and cordial. We wished there was a bigger formal lobby area, and a business office. There is a nice pantry in the washing room which has decent prices and covers essentials pretty neatly. The cleaning staff are very good at what they do keeping the hotel fresh and clean. The location is great, close to UTD, DFW, Las Colinas, and HWY 635. ample parking around. There is a DFW Shuttle. If you arrange IHG member you get a 2:30pm late checkout. The AC in our suite was not sufficient for the sitting area and the bedroom. The AC had a smell and probably needed cleaning. Bathroom needs a suction fan to reduce the vapor. It was expensive for a 2 star and we recommend negotiating with sales if you have an extended...The hotel is clean and comfortable. We stayed in one bedroom suite for an extend ed period and overall it is cozy and comfortable. We had a kitchenette with full fridge. Washer/Dryers are free wit a small exercise room. We could hear our neighboring suite but nothing so noisy. We stayed in the smoking floor, because the other on bedrooms were all taken. We could smell cigarettes in our suite more at night than during the day. Internet was not reliable and kept disconnecting. We had to log back in every time we reentered the hotel. The hotel staff, especially Jason, Armena, Raven and Mike are all helpful and cordial. We wished there was a bigger formal lobby area, and a business office. There is a nice pantry in the washing room which has decent prices and covers essentials pretty neatly. The cleaning staff are very good at what they do keeping the hotel fresh and clean. The location is great, close to UTD, DFW, Las Colinas, and HWY 635. ample parking around. There is a DFW Shuttle. If you arrange IHG member you get a 2:30pm late checkout. The AC in our suite was not sufficient for the sitting area and the bedroom. The AC had a smell and probably needed cleaning. Bathroom needs a suction fan to reduce the vapor. It was expensive for a 2 star and we recommend negotiating with sales if you have an extended stay. More</t>
   </si>
   <si>
-    <t>Carol D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r499116831-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -282,9 +321,6 @@
     <t>Working in the area for 30 days. Basic suite with comfortable bed, good AC-important in Texas- and basic kitchen with fridge, microwave, dishwasher, and 2 burner stove. Basic dinner service for 2. Once a week cleaning but, extra towels, linens, etc. easily swapped out at front desk if needed. About 15 minutes from DFW with a shuttle bus. Free washers and dryers and small "cupboard" if you forget toothpaste, etc. Pet friendly (deposit required). Great staff at front desk!!! Recommend rooms that don't overlook the parking lot. They face South making the room pretty hot by the end of the day despite having the AC full blast. Grocery, Target and CVS all within a short drive as are multiple restaurants and fast food shops. Lobby has a desktop and printer available to guests and front desk can do faxing by request. Nothing fancy but, clean, friendly staff and pleasant place to stay. Slight discounts available on room rates for extended stays.More</t>
   </si>
   <si>
-    <t>will g</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r458463589-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -303,9 +339,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>Subhadip S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r452230900-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -324,9 +357,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Huy1270</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r449656961-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -351,9 +381,6 @@
     <t>We chose this hotel because it's not far from Love field airport and it has all the amenities we need, kitchenette, frig, microwave, etc....When we checked in , the lady front desk gave us a unit top floor , room is a smoking room, we could not stand the smell so I asked for another one. This time we got a unit on first floor.Room size is average, bath room is large, full kitchen is a plus even though we did not cook anything but it got all things we need, big frig, microwave.I would stay here again.We just stay a short time before head to airport early morning so we did not check out other facility.More</t>
   </si>
   <si>
-    <t>OnTheGo M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r446928039-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -369,9 +396,6 @@
     <t>This is home away from home.  Very happy when I saw my room, full kitchen, full standup refrigerator dishes, silverware, oven and dvd player.  You cannot ask for more in a hotel.  The staff was friendly. If you wanted to go out and purchase something and cook it at the room this place has everything you need.</t>
   </si>
   <si>
-    <t>peteroo820</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r421647166-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -397,9 +421,6 @@
   </si>
   <si>
     <t>Your room has an electronic sensor which kicks on the AC when you walk in your room. It takes about 2 1/2 hours for your room temp to drop from 77 to 73, as long as you don't leave the room. The rooms are basic with almost full kitchen, desk area with desk chair, TVs with average cable choices, gas grills outside come in handy. No maid service, laundry (sheets &amp; towels) exchanged at front desk upon request. Make your own bed, No breakfast, just a newspaper. Parking is free, halls are quiet. Once you stay here for a week and get your bill, you wonder why you didn't pay a little more elsewhere to get full daily housekeeping service, a hot breakfast and happy hour. More</t>
-  </si>
-  <si>
-    <t>Megan J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r415492468-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -419,9 +440,6 @@
 Here's a tip I've learned in my marketing career: The customer is always right. Try changing your staff's attitudes, considering the guests are the ones paying THEIR SALARIES. Superior customer service goes a long way in retaining guests, and you won't have any negative reviews to...Where do I start? I never write bad reviews on hotels or restaurants, but after the horrible service I had here, I will never be staying at Candlewood Suites or any other hotel in their chain ever again. I had to go to the front desk a total of 7 times during my 5 night stay to get my door card rescanned, because they chased me down for payments PRIOR TO the end of my stay and locked me out if I didn't pay for the previous night's stay, at a minimum. The walls are paper-thin and I heard every little movement my neighbor made in his kitchen area. The front desk staff was very unwelcoming when I questioned my bill (I was promised a specific rate and had to fiht it when I was overcharged). All I wanted was a nice hotel to work out of, before I had to fly back to Chicago for a wedding. I have also read all the reviews about this hotel on this website, and it's very clear through Candlewood's staff responses that they are always "on the defensive" when anyone writes them a negative online review. Here's a tip I've learned in my marketing career: The customer is always right. Try changing your staff's attitudes, considering the guests are the ones paying THEIR SALARIES. Superior customer service goes a long way in retaining guests, and you won't have any negative reviews to worry about if you listen to them.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Candlewood Suites Dallas, Las Colinas, responded to this reviewResponded September 30, 2016</t>
   </si>
   <si>
@@ -433,9 +451,6 @@
 Here's a tip I've learned in my marketing career: The customer is always right. Try changing your staff's attitudes, considering the guests are the ones paying THEIR SALARIES. Superior customer service goes a long way in retaining guests, and you won't have any negative reviews to...Where do I start? I never write bad reviews on hotels or restaurants, but after the horrible service I had here, I will never be staying at Candlewood Suites or any other hotel in their chain ever again. I had to go to the front desk a total of 7 times during my 5 night stay to get my door card rescanned, because they chased me down for payments PRIOR TO the end of my stay and locked me out if I didn't pay for the previous night's stay, at a minimum. The walls are paper-thin and I heard every little movement my neighbor made in his kitchen area. The front desk staff was very unwelcoming when I questioned my bill (I was promised a specific rate and had to fiht it when I was overcharged). All I wanted was a nice hotel to work out of, before I had to fly back to Chicago for a wedding. I have also read all the reviews about this hotel on this website, and it's very clear through Candlewood's staff responses that they are always "on the defensive" when anyone writes them a negative online review. Here's a tip I've learned in my marketing career: The customer is always right. Try changing your staff's attitudes, considering the guests are the ones paying THEIR SALARIES. Superior customer service goes a long way in retaining guests, and you won't have any negative reviews to worry about if you listen to them.More</t>
   </si>
   <si>
-    <t>Renie D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r414405123-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -454,9 +469,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Darrell F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r409652330-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -472,9 +484,6 @@
     <t>This hotel is very well maintained, the staff are super friendly, the rooms are nice, modern and clean. The location is just off of Highway 114 and easy on easy off. I highly recommend this hotel to anyone staying in the North Dallas area. This hotel offers a shuttle service within 5 miles of the hotel. Several restaurants in the area deliver, and there are quite a few in the immediate area that do not deliver, but are in close proximity to the hotel. This Candlewood as all do offers a free exercise room and free laundry. I highly recommend this hotel!</t>
   </si>
   <si>
-    <t>Jovellelee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r385091571-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -502,9 +511,6 @@
     <t>Bed and pillows are comfortable, kitchen adequately stocked, shower has good supply of hot water and great water pressure......if you will need to use the internet then stay some place else where you have a connection without fighting with their ISP constantly on the phone, numerous times, EVERYDAY that you are here while the employee at the front desk tells you that it's working just fine and you can come downstairs and sit in the lobby to do what you need to do.  BS....when I make a reservation to stay someplace that offers free wifi, I expect it to be usable because we all know it isn't free,...we are paying the bill....I didn't give them a little of my payment for the room and then make them chase me around for hours trying to get the rest of it....I expect to get what I pay for without having to be inconvenienced, just like I did not inconvenience them by making my payment. And it is not just at 'peak' times, unless you consider 3 am a peak time!  Calling their ISP does not resolve anything at all.  The air conditioning is not adequate at all...the temperature is set on 60, you cannot change it and it is still too hot in the room and the temperature in the hallway is set on 85....it feels like an oven.  I am not an overweight person nor do I have any other physical...Bed and pillows are comfortable, kitchen adequately stocked, shower has good supply of hot water and great water pressure......if you will need to use the internet then stay some place else where you have a connection without fighting with their ISP constantly on the phone, numerous times, EVERYDAY that you are here while the employee at the front desk tells you that it's working just fine and you can come downstairs and sit in the lobby to do what you need to do.  BS....when I make a reservation to stay someplace that offers free wifi, I expect it to be usable because we all know it isn't free,...we are paying the bill....I didn't give them a little of my payment for the room and then make them chase me around for hours trying to get the rest of it....I expect to get what I pay for without having to be inconvenienced, just like I did not inconvenience them by making my payment. And it is not just at 'peak' times, unless you consider 3 am a peak time!  Calling their ISP does not resolve anything at all.  The air conditioning is not adequate at all...the temperature is set on 60, you cannot change it and it is still too hot in the room and the temperature in the hallway is set on 85....it feels like an oven.  I am not an overweight person nor do I have any other physical ailment that would cause me to be overheated for no reason. I realize It's summer and hot, once again, I paid for an air conditioned room that allows me to be comfortable, especially at night while I'm trying to sleep.  I will NEVER stay here again and I will certainly advise everyone else not to stay here as well.More</t>
   </si>
   <si>
-    <t>Christina G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r380105260-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -523,9 +529,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>John B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r372229848-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -547,9 +550,6 @@
     <t>Overall I think Candlewood Suites gets a bad rap, some may be worth a bad review but this one No!  We reserved our room based on the good reviews and they were not wrong.  Our room was exceptionally clean and the layout was great with lots of room. . This one truly lives up to its reviews.  Reviews are very important at this time of internet usage/social media and it appears that this facility strives to keep their hotel clean and modern.  I am sure that most miss the breakfast aspect at this hotel but the room and kitchen far exceeds our wants.  I travel a lot for business and this hotel will be a go to for future trips out of DFW airport.  Thanks staff and housekeeping for your good work!!More</t>
   </si>
   <si>
-    <t>SuzanaAthayde</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r369845395-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -577,9 +577,6 @@
     <t>I had an amazon order delivered at the hotel but I never received it.I am still today waiting a answer about my emails!!I had a toilet clogged but my apartment was not cleanedShuttle was not available(I emailed the front desk Manager before to confirm)More</t>
   </si>
   <si>
-    <t>johnbcobb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r365859600-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -598,9 +595,6 @@
     <t>Recently, I had the opportunity to stay here with my family. I was attending a function at the University of Dallas. It was close to the University and I really liked that. The parking lot was a little tight for a bigger vehicle in front because everyone seemed to park there. However, there was plenty of parking in back and that made my stay more pleasurable. The roll-away mattresses were a little dated and don't provide much in the way of back support so if you're travelling with a large group and people have bad backs, I would recommend that you get a second room and don't get a roll-away. Bathroom was clean. Plenty of towels provided. There were only two trash cans in the room. I wish there was a third. That way the kitchen area was covered. Pets friendly. Good ground maintenance. I WOULD STAY HERE AGAIN.More</t>
   </si>
   <si>
-    <t>TexasBoss903</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r361620204-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -619,9 +613,6 @@
     <t>The staff was great. Stacy (I think that was his name) got me checked in fast. For whatever reason I was being a nitpicker the next morning when I talked to Sherri (I think that's her name). I had a headache. Lol she was so awesome and her kindness went along way in making my day better. They were out of Tylenol but she found some and called my room and let me know. No charge for the Tylenol or the coke which wasn't necessary but she insisted. I highly recommend this hotel. The class act staff is enough to make it worth your stay. You'll definitely be treated great. More</t>
   </si>
   <si>
-    <t>John H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r351318882-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -640,9 +631,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Jackson1679</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r346705996-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -667,9 +655,6 @@
     <t>Nice motel. Great location. Easy access to major thoroughfares. Good part of town. Good eats and large grocery within three miles. Friendly staff. Comfortable beds. Clean room. I am not a big fan of the Candlewood Suites, but this was one of the best that I have stayed in. I recommend it. More</t>
   </si>
   <si>
-    <t>Courtney L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r345091516-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -685,9 +670,6 @@
     <t xml:space="preserve">This may have been my first stay at a candlewood suites.  I checked in late and returned my second night late at night. The young lady who worked the desk was friendly and helpful.  My room was clean and comfortable but the ac/heating unit was soooo loud. </t>
   </si>
   <si>
-    <t>Giacomo C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r332594684-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -715,9 +697,6 @@
     <t>When I booked at Las Colinas, everything was fully booked. I don't know what was going on. I was very lucky that they still had a room at this hotel. Actually it is not a real hotel, it is more a suite place, with bed and kitchenette in the same room.I was missing the breakfast, which is an important side of the business travel, but I was happy with the choice and thankful to the staff that had found me a room.Very clean place, very polite people, smiling and happy to serve you. Highly recommended for longer stays, when you can also cook.More</t>
   </si>
   <si>
-    <t>Oscar R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r328231310-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -733,9 +712,6 @@
     <t>This is a very great option for your close to the airport (DFW) needs. Mike at the Front Desk was great at check in and the room was excellent. The Cupboard is a good fall back for your food needs with out having to leave the hotel! But if you need/want to leave the hotel, there is a great Brazilian steakhouse right around the corner.</t>
   </si>
   <si>
-    <t>Marie d</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r312992603-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -754,9 +730,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>riderofthestorm0609</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r298980618-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -775,9 +748,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>flgirl82</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r291508550-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -796,9 +766,6 @@
     <t>Booked a long weekend at the Candlewood Suites.  From the time I checked in until checkout it was a great stay.  The staff was very professional, friendly and efficient.  I stayed in a one bedroom suite.  Two things I look for in a hotel is cleanliness and security.  I felt very secure here.  Also, the room was spotless.  All of the finishes appeared to be new and modern.  The kitchenette had everything I needed (and more).  The bathroom was a nice size and the towels were nice and soft.  The bed was extremely comfortable.  It was a very relaxing and peaceful weekend.  The hotel is situated in a central location very close to the airport and lots of restaurants and shopping.  This is a great choice for a hotel, especially for longer stays! Highly recommend!More</t>
   </si>
   <si>
-    <t>msc829</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r275007102-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -817,9 +784,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>Tony R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r260020983-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -838,9 +802,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>a b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r250201170-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -868,16 +829,22 @@
     <t>Do not stay here if you wish to have a clean room.  Towels, bedding and furniture were filthy.  When I told the desk clerk, he told me I would still be charged for the room because I may have just used it for the hour.  It was insulting and I was staying there with my sister.  As tired as we were, we had to find another hotel.  My credit card was still charged even though I was there for only about a half hour.  Still waiting for the refund!More</t>
   </si>
   <si>
-    <t>Vin0dh13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r231245734-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
     <t>231245734</t>
   </si>
   <si>
-    <t>ChipTX</t>
+    <t>09/27/2014</t>
+  </si>
+  <si>
+    <t>A Very Nice Stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 weeks . •	Check-in was very peaceful and so was the checkout•	Room provided was excellent. the Kitchen was very well equipped.•	Weekly room service was apt.•	The Shuttle Service was good.•	To Save the Best for last, the Staffs were awesome.  Jack Rickman, Pattie, Darrick, Mike,          Zach, Kristie, Hayle,  Juanna and the whole of house keeping and maintenance team... you guys are REAL STARS.i enjoyed my stay very much at Room #312</t>
+  </si>
+  <si>
+    <t>August 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r222764762-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -895,15 +862,9 @@
     <t>I stayed here over an August weekend for a sports and fitness competition going on at the nearby Irving Convention Center.  As I needed to prepare my own meals, I was looking for a hotel with a full kitchen near the Convention Center.  By and large, the hotel met what would be expected for this level hotel.  Rooms look like they have been updated recently.  As such, the bathroom was clean (clean grout on the floors and bath/shower tiles), as well as the kitchen area.  Some of the work seemed a little shoddy -- the cabinet doors in the kitchen for example were loose and one was crooked.  One of the chairs in the room showed a lot of wear and tear, but otherwise, the furniture was in good condition.  I stayed on the 2nd floor not too far from the elevator, but the room was fairly quiet, so that was a plus.  Staff at check-in/check-out was friendly.  Room had free wi-fi, which worked the whole time without issue.MoreShow less</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>I stayed here over an August weekend for a sports and fitness competition going on at the nearby Irving Convention Center.  As I needed to prepare my own meals, I was looking for a hotel with a full kitchen near the Convention Center.  By and large, the hotel met what would be expected for this level hotel.  Rooms look like they have been updated recently.  As such, the bathroom was clean (clean grout on the floors and bath/shower tiles), as well as the kitchen area.  Some of the work seemed a little shoddy -- the cabinet doors in the kitchen for example were loose and one was crooked.  One of the chairs in the room showed a lot of wear and tear, but otherwise, the furniture was in good condition.  I stayed on the 2nd floor not too far from the elevator, but the room was fairly quiet, so that was a plus.  Staff at check-in/check-out was friendly.  Room had free wi-fi, which worked the whole time without issue.More</t>
   </si>
   <si>
-    <t>Geeta_huh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r218616071-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -931,9 +892,6 @@
     <t>Stayed for over 2.5 months on business travel. An excellent experience, cordial and helpful staff. Perfectly armed kitchen. Weekly room service was just apt. Requests were accomodated with a smile! Kudos!More</t>
   </si>
   <si>
-    <t>Deana G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r207423955-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -961,9 +919,6 @@
     <t>Oh my gosh!  This is a GREAT Hotel for those who love anything golf!  Close to major courses to watch major events.....and for those who play.....golf EVERYWHERE!  Excellent location, excellent staff.....nearby restaurants and nightclubs.....clean, comfortable.  Definitely will be back!More</t>
   </si>
   <si>
-    <t>Frank A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r203989886-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -988,9 +943,6 @@
     <t>If you can live with once a week housekeeping (we came in on Monday so we were good), it's a good place. Quiet, close to business/attractions, restaurants, easy on/off of highways. Newly appointed room furnishings. More</t>
   </si>
   <si>
-    <t>git-r-dan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r202386078-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1018,9 +970,6 @@
     <t>As a catastrophe adjuster who stays in a lot of different hotels, good and bad, this one was excellent.  This hotel offers a very nice workout room, free washers and dryers, daily USA today and coffee.  The view out the window was pretty stellar considering other places I've been, looking at a vast countryside with a quiet commuter train passing through about every 30 minutes.  The staff was always very congenial and always offered to help with any problem that came up.  The maintenance man, Jose, came immediately to replace a noisy refrigerator and within a few minutes it was done.  You could really tell this man enjoyed his job and life.  The wireless internet was fast enough to stream my Slingbox back at home in HD which was a big deal for me.  All in all, it was a very nice stay.More</t>
   </si>
   <si>
-    <t>Cameron C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r201438895-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1048,9 +997,6 @@
     <t>I don't know why they call these "suites", they are "studios".  This hotel tends to overbook -- the night I checked in they were overbooked by 3 rooms and had to stick me in an accessibility "suite" right next to the front desk.  The staff there didn't seem to do anything to minimize the volume of conversations, regardless of the hour.  They said they wouldn't have anything else available for 2 nights.Housekeeping only comes once a week, which isn't so bad if you can clean up after yourself. It just didn't have a welcoming feeling.More</t>
   </si>
   <si>
-    <t>Yorkie1948</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r199857926-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1072,9 +1018,6 @@
     <t>Stayed for 3 days whilst in the Dallas area and was really pleased I had chosen this hotel. On arrival Juana greeted me with a warm welcome and as a platinum member upgraded me, which was most welcome and told me all I needed to know about the hotel and area. The Suite I had was excellent plenty of room, comfy bed, nice bathroom, big lounge with TV in lounge and bedroom and the Kitchen was well equipped. The fitness room was one of the best I have seen and great for my morning workout. The laundry room was excellent and free and also the Candlewood Shop was well equipped. The staff were brilliant for my whole stay and really would return here again.More</t>
   </si>
   <si>
-    <t>Rodger C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r193615353-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1102,9 +1045,6 @@
     <t>I had my transcontinental trip started out from San Jose, the stopover location is...Dallas. Just for a two-day sight-seeing and visit my former employer. So I booked this Candlewood Suites with my IHG points (Yes, I paid nothing but points.) I got myself a spacious one-bed mini apartment suite, with well-equipped kitchenette (basically everything including the kitchen sink). Bed is comfortable and the service is average by US standard, no complaint from me. But to me, who never experienced laundromat in China, I found the self-service laundry machine at Ground Floor was definitely save my day (and night).More</t>
   </si>
   <si>
-    <t>Lbeard1864</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r189392725-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1123,9 +1063,6 @@
     <t>I have to say we got a exceptional rate at Christmas time here. Nice room and I was able to take my dogs. Be aware you do have to pay for the dogs though and it's not bad. I enjoyed my visit but the bed was very uncomfortable. We had a queen and it was way to small. Will opt for 2 doubles or a king if possible. The place is clean and good coffee. I really liked that we could cook our food in the room. Saved on eating out expenses. This Candlewood Suites is in a great location also.More</t>
   </si>
   <si>
-    <t>nvenky</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r182628331-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1145,9 +1082,6 @@
   </si>
   <si>
     <t>I liked the Candlewood Suites at Las Colinas, Dallas for multiple reasons.- Well appointed rooms - good for a long stay. It is equipped with a neat kitchen to cook my own stuff. Very convenient.- Close to nearby business offices - they offer a shuttle drop Mon-Fri within 5 miles, that was very convenient.- The staff is very friendly, very helpful and courteous.- The hotel is close to a small shopping center and few restaurants - so if you want a change of food choices, there are plenty around.- The hotel is situated close to a residential neighborhood, so one can take long walks in the morning and evening. The weather was great when I was in Dallas, and hence it was great walking in the evening.- It is just 15 mins away from the DFW airport - very convenient. They call a taxi guy who comes within 5-10 mins.Negatives - The air conditioner was very noisy - it took some time to get used to it. In fact I switched it off some nights so I could sleep.More</t>
-  </si>
-  <si>
-    <t>Meredith R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r179105416-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -1187,9 +1121,6 @@
 I had one bad experience with one front desk clerk.  She refused to help me transfer the confirmation number to my name and to my IHG rewards account.  However, I went back down 2 hours later and another staff member was working, who was extremely helpful...I was preparing for the worst and hoping for the best when I learned my coworker booked this hotel for our week in DFW.  The reviews have been pretty bad.  But I was pleasantly surprised, as there were only a few annoyances.The good:   The rooms.  They're huge.  They're the size of a small one bedroom apartment. And there are nice touches throughout including: plenty of outlets built in to the nightstand, two closets, bathroom storage, and a large work table/dining table that separates the kitchen from the living room. The recent remodel served this property well.  I did not have any problems with noise.  I had rooms on either side of me and rooms below and above me.  I really didn't hear anything.  The bed was EXTREMELY soft and comfortable.  Just like my bed at home.And the location was great.  So many restaurants nearby.The bad:Again, like so many hotels in this class, the internet sucks.  You can access it fine from 4pm to 6pm, but forget it after that.  There are too many people trying to use it.  They need to invest in more than one connection for the hotel. I had one bad experience with one front desk clerk.  She refused to help me transfer the confirmation number to my name and to my IHG rewards account.  However, I went back down 2 hours later and another staff member was working, who was extremely helpful and got everything switched over correctly.I also did not like the fitness room/pantry/laundry room combination.  It was annoying to have people coming in and out to do their laundry while I was on the treadmill.The ugly:The treadmills.  They were pretty old.  But they were jerky.  This could easily turn into a safety issue and then lead to a liability.  I really think management needs to have them looked at, or get them replaced.All in all, it was a good experience.  I would stay here again.More</t>
   </si>
   <si>
-    <t>Erivan T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r171025466-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1217,9 +1148,6 @@
     <t>I was in the city for business, and my opnion about this hotel is: Noisy. My room air conditioning unit, that you cannot turn off, makes a lot of noise. It was very hot there(July), so I had to tolerate the noise. The housekeeping services happens only on Mondays...You have to stay with trash and dirt linens and towels for a week. Also, you have no privacy. The housekeepers, or someone else who has the room keys, even with the " No service needed"' or No disturb sign on the door, simply opens the door of your room and enter, without let you have time to say no! And, after inform the situation to the manager, the problem occurred again. The commom areas had a string cigar smell, and the carpets was dirty. I' will not come back!More</t>
   </si>
   <si>
-    <t>aligobs</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r165297688-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1241,9 +1169,6 @@
     <t>As a business traveler I have bounced around to various extended stay hotels in the Las Colinas area trying to find the "homiest" place for the best price.  I finally landed on Candlewood Suites in the Las Colinas area.  Once I stayed here I haven't changed since.  The staff is super friendly, they even store stuff for me over the weekends so I don't have to haul as much back and forth.  I do get the one bedroom suite which provides a separate living area with a couch, recliner and large flat screen TV in both the living room and bedroom.  I have a full size kitchen with large fridge and stovetop.  You would say most places have this now but the rooms have all been upgraded recently and have a luxury feel without a luxury price.  Also, it is super clean.  Anyone that has to stay in extended stay hotels know that most rooms really show the wear and tear but not this place.  Over time it may change obviously but right now it feels like new rooms each time I stay.  If I have anything negative to say it's that I did try the gym equipment and both treadmills were in need of overhauling.  Also, no pool which in Irving in summer would be really nice.  Otherwise I have nothing negative to say.More</t>
   </si>
   <si>
-    <t>jo_coch</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r164526862-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1268,9 +1193,6 @@
     <t>There's nothing "wrong" with this small suite hotel - it seemed very new, with decent modern finishes. It's in a good location, close to the freeways and dining and shopping. The queen room was very compact but well organized and equipped for one person on an extended stay.  There is only weekly maid service - go to the front desk if you need more towels.  There is a full kitchen (with an extremely LOUD, older fridge in my room).  As a single business traveller, it suited my needs for the 2 days I was there since my usual place was full.  I felt "trapped" in my small room though because the ONLY common area is a 20 x 20 room that held the 4 workout machines, the walk-up computer desk, the "pantry store", the laundry facilities and a tiny 4 seater dinnette. In 2 days - I saw only the front desk person upon check-in (that i had to call on a courtesy phone to come out of the back)...and caught a glimpse of another person walking down the narrow halls.More</t>
   </si>
   <si>
-    <t>wferriter</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r161570241-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1298,9 +1220,6 @@
     <t>I got stranded in Dallas after the recent tornadoes and thunderstorms and by luck, got a room here.  It sure beat spending the night in the airport.  The room was tastefully decorated.  The bathroom was nicely tiled, the leather recliner was a nice touch, the sofa bed in the living room was comfortable, and the separate master bedroom suite was great.  I was also pretty impressed by the size of the washing machine and workout area.  If I were staying for a longer period of time, that would have been great.But I was stuck in a smoking room -- which I didn't even know that hotels had anymore -- and it was nauseating.  Couldn't sleep all night because of the smell even though I had the windows flung completely open.  If you're a smoker, this probably won't be a problem.  Everyone else should be SURE they get a non-smoking room.More</t>
   </si>
   <si>
-    <t>HHopeItHHelps</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r159741753-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1328,9 +1247,6 @@
     <t>Compared to other Candlewood Suites, I rated this one inferior.. No manager's reception (there isn't a lobby only a very small room for guests to crowd in to check in. One pack of coffee in the room and was told I would have to pay for more. Enjoy single tea packs that are normally available? there was a charge as well... Business center printer had no paper, when I inquired I was given 5 sheets. I ask for non smoking and didn't get it. No receipt under the door, had to stand in line in the "little cubby hole lobby" to get a copy. While these things may sound petty, they are the little things I enjoy about staying at Candlewood Suites. Area was very nice and there are many hotels adjacent to this one, may be worth checking those out..More</t>
   </si>
   <si>
-    <t>ANTHONY Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r154648808-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1349,9 +1265,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Traveler252525</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r145200276-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1373,9 +1286,6 @@
     <t>This was been one of the VERY BEST hotels we have recently experienced! Very quiet hotel with exceptionally clean rooms, clean hallways (shiny floors) and beautifully appointed remodeled rooms with the nicest decor we have seen compared to other Candlewood Suites!The staff was very friendly!The rooms are not only well appointed but there is obvious care taken in making a guest experience the BEST from the internet codes posted in the room to the superior cleanliness to the obvious adjusting of guest room doors so they don't slam! (As a road warrior it is unusual to stay in a hotel where one doesn't experience the slamming of doors!)This will be our choice whenever we frequent this area!It is very obvious that they go above and beyond to make it a memorable stay!The management and staff have made this our choice in Dallas!More</t>
   </si>
   <si>
-    <t>srg22801</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r144696808-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1397,9 +1307,6 @@
     <t>Hotel is average quality for this price range, and staff is nice.  Location is pretty good, with a couple of restaurants withing walking distance.  It was just repainted on the exterior in the last couple of weeks, so it looks good from the outside.Inside, it's old, appearance mostly due to the carpeting, and the terrible odor as soon as you walk in. The lobby is just a wide section of hall in front of the main desk. There's not much room to pass anyone checking in if they have any luggage to speak of. The rooms have been remodeled, so they look a lot better than the common areas, and are laid out pretty well. The laundry/pantry/exercise area is nice, and free laundry is an appreciated plus. The only issue I had with my room was the toaster did not toast both side of the bread. A new one has been requested, but not received after two weeks. The Internet...well it sounds good "high speed" and all, unless you need to actually use it. In the afternoons, evenings, it is almost impossible to get anything accomplished, even loading basic pages like CNN, the Weather Channel, etc. can take a LONG time, so use the coffee maker and relax. It's a bandwidth issue...if the hotel parking lot is full, forget it, because everyone else is using it.More</t>
   </si>
   <si>
-    <t>Valerie F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r142999022-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1418,9 +1325,6 @@
     <t>The hotel was great, and the service was better. Chris was amazing. He did everything he could to accomodate us on our whole 5 day stay, and even when we got there early, he did what he could to let us still check in. We brought our 12lb Shih Tzu. She was able to stay in the room while we went to places around the area which was a great help especially since she isn't a barker. The only thing I would complain about is that the walls are thin. I was able to hear the guy next door putting dishes in his sink, but it was never any time that interfered with our sleep, but after sleeping there for three nights, both of our backs were bothering us, but we still aren't sure if that was from riding Go Karts all day. The rooms were newly renovated and they looked great. We used the HDMI hook up on the tv and cooked french toast on the stove top. It doesn't have an oven. The location is near a railroad track next to it, but I never heard any trains. They were painting the building and put plastic on the outside of our windows so my dog couldn't look outside. They also put plastic bags and tape around our cars so I guess paint didn't get on them. Other than that, the location was great. They even offer free access...The hotel was great, and the service was better. Chris was amazing. He did everything he could to accomodate us on our whole 5 day stay, and even when we got there early, he did what he could to let us still check in. We brought our 12lb Shih Tzu. She was able to stay in the room while we went to places around the area which was a great help especially since she isn't a barker. The only thing I would complain about is that the walls are thin. I was able to hear the guy next door putting dishes in his sink, but it was never any time that interfered with our sleep, but after sleeping there for three nights, both of our backs were bothering us, but we still aren't sure if that was from riding Go Karts all day. The rooms were newly renovated and they looked great. We used the HDMI hook up on the tv and cooked french toast on the stove top. It doesn't have an oven. The location is near a railroad track next to it, but I never heard any trains. They were painting the building and put plastic on the outside of our windows so my dog couldn't look outside. They also put plastic bags and tape around our cars so I guess paint didn't get on them. Other than that, the location was great. They even offer free access to a nice fitness center near by if their fitness center doesn't have everything you want. Overall we loved our stay.More</t>
   </si>
   <si>
-    <t>miwe_85</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r137483017-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1439,9 +1343,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>April B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r130645195-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1481,9 +1382,6 @@
     <t>This is not a quite location. Not only can you hear the road noise but the place is under construction/remodeling. I should have taken the hint when I got my Priority Member gift and it included ear-plugs. Construction noise started early and ended late. They were hanging new pictures in renovated rooms at 8PM. My room had new carpet installed and the smell of chemicals was horrible. I had to sleep with the window open. The TV did not have a remote.Good thing I set my cell phone alarm because I didn't get my wake up call. My room did not receive room service between nights. The front desk is rarely staffed after 9:00PM The work out room was closed and there was no coffee or newspapers in the lobby area. Also I had to wait in line to check out in the morning instead of getting my bill in my room. This hotel has a long way to go to improve guest service for business travelers.The one nice thing I can say is the renovated rooms look nice and the room was clean.More</t>
   </si>
   <si>
-    <t>MrsLatts</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r122630315-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1505,9 +1403,6 @@
     <t>We had 2 nights here before flying out of the USA at the end of our holiday so wanted to be near the airport.  We checked in late at night and found the night staff to be helpfull and got to our room pretty efficiently.  The rooms themselves were a great size and very clean and had everything we needed.  The hotel was undergoing a renovation which they were very apologetic about but apart from one of the lifts being used for this and some plastic laying about it didn't have any impact on us.  The free laundry facilities were excellent as was the 'pantry' to be basic food as there is nothing within walking distance of the hotel if you need something to eat.  We requested a late check out and staff went out of their way to accomodate us which was very helpfull.  The only issue I had is I had booked here as when I had searched it came up as having a shuttle which I assumed was to the airport but it is only for limited times and within a 5mile radius of the hotel.  Not a huge issue as a cab ride was quite inexpensive.More</t>
   </si>
   <si>
-    <t>Fay397</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r121497798-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1544,9 +1439,6 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>Monte G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r116492566-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1565,9 +1457,6 @@
     <t>July 2011</t>
   </si>
   <si>
-    <t>harikrish</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r114628506-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1586,9 +1475,6 @@
     <t>January 2011</t>
   </si>
   <si>
-    <t>chundell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r65387039-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1607,9 +1493,6 @@
     <t>February 2010</t>
   </si>
   <si>
-    <t>Soozie238</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r46240969-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1628,9 +1511,6 @@
     <t>September 2009</t>
   </si>
   <si>
-    <t>travelersolo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r31039494-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1650,9 +1530,6 @@
   </si>
   <si>
     <t>This was like a home away from home.  Like a previous poster, my room reminded me of my first apartment, a very comfortable efficiency.  I loved having the fully equipped kitchen, including a kitchen sink!  Finally a hotel were I didn't have to wash my dishes in the bathroom sink.  It was a spacious room, with a very spacious kitchen and bathroom, lots of storage space, dishes for two, a full-sized refrigerator.  No breakfast, no pool, but I was more interested in the room and the laundry convenience.  Very comfortable bed, with lots of pillows, wonderfully floffy towels, and two waste baskets!  Enough table space for my computer and my paperwork.  Three chairs were in the room.  I didn't request the suite with the sofa - didn't need it.  I liked it so much I booked another stay at Candlewood in another city.  Highly recommended.  Only problem was the difficulty in finding the place, they only give directions online for people arriving at the airports, completely forgetting about those arriving by private transportation - car, other personal vehicle.  Some highway directions would be nice.More</t>
-  </si>
-  <si>
-    <t>see-the-country</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109049-r3794947-Candlewood_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -2181,112 +2058,100 @@
       <c r="A2" t="n">
         <v>36615</v>
       </c>
-      <c r="B2" t="n">
-        <v>123977</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36615</v>
       </c>
-      <c r="B3" t="n">
-        <v>123978</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2300,59 +2165,57 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36615</v>
       </c>
-      <c r="B4" t="n">
-        <v>23387</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
@@ -2372,112 +2235,108 @@
       <c r="A5" t="n">
         <v>36615</v>
       </c>
-      <c r="B5" t="n">
-        <v>123979</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36615</v>
       </c>
-      <c r="B6" t="n">
-        <v>11791</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="n">
         <v>5</v>
@@ -2485,7 +2344,7 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2493,60 +2352,56 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36615</v>
       </c>
-      <c r="B7" t="n">
-        <v>123980</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -2558,131 +2413,119 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36615</v>
       </c>
-      <c r="B8" t="n">
-        <v>123981</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36615</v>
       </c>
-      <c r="B9" t="n">
-        <v>64968</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2690,61 +2533,57 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36615</v>
       </c>
-      <c r="B10" t="n">
-        <v>123982</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -2755,199 +2594,181 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36615</v>
       </c>
-      <c r="B11" t="n">
-        <v>123983</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>124</v>
-      </c>
-      <c r="X11" t="s">
-        <v>125</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36615</v>
       </c>
-      <c r="B12" t="n">
-        <v>61293</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>133</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>134</v>
-      </c>
-      <c r="X12" t="s">
-        <v>135</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36615</v>
       </c>
-      <c r="B13" t="n">
-        <v>118978</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -2958,127 +2779,119 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36615</v>
       </c>
-      <c r="B14" t="n">
-        <v>123984</v>
-      </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s">
+        <v>133</v>
+      </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36615</v>
       </c>
-      <c r="B15" t="n">
-        <v>123985</v>
-      </c>
-      <c r="C15" t="s">
-        <v>150</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="n">
         <v>2</v>
       </c>
-      <c r="N15" t="s">
-        <v>156</v>
-      </c>
-      <c r="O15" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -3088,127 +2901,125 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36615</v>
       </c>
-      <c r="B16" t="n">
-        <v>40714</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36615</v>
       </c>
-      <c r="B17" t="n">
-        <v>508</v>
-      </c>
-      <c r="C17" t="s">
-        <v>167</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -3220,379 +3031,363 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36615</v>
       </c>
-      <c r="B18" t="n">
-        <v>123986</v>
-      </c>
-      <c r="C18" t="s">
-        <v>175</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="s">
-        <v>181</v>
-      </c>
-      <c r="O18" t="s">
-        <v>70</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="X18" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36615</v>
       </c>
-      <c r="B19" t="n">
-        <v>123987</v>
-      </c>
-      <c r="C19" t="s">
-        <v>185</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36615</v>
       </c>
-      <c r="B20" t="n">
-        <v>123988</v>
-      </c>
-      <c r="C20" t="s">
-        <v>192</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36615</v>
       </c>
-      <c r="B21" t="n">
-        <v>3346</v>
-      </c>
-      <c r="C21" t="s">
-        <v>199</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" t="s">
+        <v>183</v>
+      </c>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36615</v>
       </c>
-      <c r="B22" t="n">
-        <v>123989</v>
-      </c>
-      <c r="C22" t="s">
-        <v>206</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>212</v>
-      </c>
-      <c r="X22" t="s">
-        <v>213</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36615</v>
       </c>
-      <c r="B23" t="n">
-        <v>13325</v>
-      </c>
-      <c r="C23" t="s">
-        <v>215</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3606,124 +3401,110 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36615</v>
       </c>
-      <c r="B24" t="n">
-        <v>123990</v>
-      </c>
-      <c r="C24" t="s">
-        <v>221</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="K24" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
         <v>3</v>
       </c>
-      <c r="N24" t="s">
-        <v>227</v>
-      </c>
-      <c r="O24" t="s">
-        <v>70</v>
-      </c>
-      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>228</v>
-      </c>
-      <c r="X24" t="s">
-        <v>229</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36615</v>
       </c>
-      <c r="B25" t="n">
-        <v>43930</v>
-      </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>227</v>
-      </c>
-      <c r="O25" t="s">
-        <v>70</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
@@ -3733,266 +3514,244 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>208</v>
+      </c>
+      <c r="X25" t="s">
+        <v>209</v>
+      </c>
       <c r="Y25" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36615</v>
       </c>
-      <c r="B26" t="n">
-        <v>123991</v>
-      </c>
-      <c r="C26" t="s">
-        <v>237</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="J26" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36615</v>
       </c>
-      <c r="B27" t="n">
-        <v>123992</v>
-      </c>
-      <c r="C27" t="s">
-        <v>244</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>222</v>
+      </c>
+      <c r="X27" t="s">
+        <v>223</v>
+      </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36615</v>
       </c>
-      <c r="B28" t="n">
-        <v>123993</v>
-      </c>
-      <c r="C28" t="s">
-        <v>251</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="O28" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36615</v>
       </c>
-      <c r="B29" t="n">
-        <v>123994</v>
-      </c>
-      <c r="C29" t="s">
-        <v>258</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
       </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -4004,66 +3763,62 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36615</v>
       </c>
-      <c r="B30" t="n">
-        <v>30351</v>
-      </c>
-      <c r="C30" t="s">
-        <v>265</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4071,179 +3826,188 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36615</v>
       </c>
-      <c r="B31" t="n">
-        <v>28855</v>
-      </c>
-      <c r="C31" t="s">
-        <v>272</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>279</v>
-      </c>
-      <c r="X31" t="s">
-        <v>280</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36615</v>
       </c>
-      <c r="B32" t="n">
-        <v>123995</v>
-      </c>
-      <c r="C32" t="s">
-        <v>282</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
-      </c>
-      <c r="J32" t="s"/>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
-      <c r="M32" t="s"/>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="J32" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" t="s">
+        <v>119</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36615</v>
       </c>
-      <c r="B33" t="n">
-        <v>123996</v>
-      </c>
-      <c r="C33" t="s">
-        <v>285</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4251,138 +4015,122 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36615</v>
       </c>
-      <c r="B34" t="n">
-        <v>123997</v>
-      </c>
-      <c r="C34" t="s">
-        <v>293</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="X34" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="Y34" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36615</v>
       </c>
-      <c r="B35" t="n">
-        <v>46848</v>
-      </c>
-      <c r="C35" t="s">
-        <v>303</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="J35" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="O35" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
       </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4390,139 +4138,125 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>310</v>
-      </c>
-      <c r="X35" t="s">
-        <v>311</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36615</v>
       </c>
-      <c r="B36" t="n">
-        <v>87058</v>
-      </c>
-      <c r="C36" t="s">
-        <v>313</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="J36" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="K36" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
         <v>3</v>
       </c>
-      <c r="N36" t="s">
-        <v>309</v>
-      </c>
-      <c r="O36" t="s">
-        <v>70</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>319</v>
-      </c>
-      <c r="X36" t="s">
-        <v>320</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36615</v>
       </c>
-      <c r="B37" t="n">
-        <v>123998</v>
-      </c>
-      <c r="C37" t="s">
-        <v>322</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="J37" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
       </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
         <v>5</v>
       </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>5</v>
@@ -4531,579 +4265,545 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="X37" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="Y37" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36615</v>
       </c>
-      <c r="B38" t="n">
-        <v>51767</v>
-      </c>
-      <c r="C38" t="s">
-        <v>332</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="J38" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="K38" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="O38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="X38" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="Y38" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36615</v>
       </c>
-      <c r="B39" t="n">
-        <v>123999</v>
-      </c>
-      <c r="C39" t="s">
-        <v>342</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="O39" t="s">
-        <v>133</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="X39" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="Y39" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36615</v>
       </c>
-      <c r="B40" t="n">
-        <v>124000</v>
-      </c>
-      <c r="C40" t="s">
-        <v>350</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="J40" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="O40" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="X40" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="Y40" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36615</v>
       </c>
-      <c r="B41" t="n">
-        <v>124001</v>
-      </c>
-      <c r="C41" t="s">
-        <v>360</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="K41" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>321</v>
+      </c>
+      <c r="O41" t="s">
+        <v>86</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="X41" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="Y41" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36615</v>
       </c>
-      <c r="B42" t="n">
-        <v>124002</v>
-      </c>
-      <c r="C42" t="s">
-        <v>367</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="J42" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="K42" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="L42" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="O42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
         <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>330</v>
+      </c>
+      <c r="X42" t="s">
+        <v>323</v>
+      </c>
       <c r="Y42" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36615</v>
       </c>
-      <c r="B43" t="n">
-        <v>23372</v>
-      </c>
-      <c r="C43" t="s">
-        <v>375</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="J43" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>338</v>
+      </c>
+      <c r="X43" t="s">
+        <v>339</v>
+      </c>
       <c r="Y43" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36615</v>
       </c>
-      <c r="B44" t="n">
-        <v>124003</v>
-      </c>
-      <c r="C44" t="s">
-        <v>383</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="J44" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
-      </c>
-      <c r="N44" t="s">
-        <v>389</v>
-      </c>
-      <c r="O44" t="s">
-        <v>70</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>2</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="X44" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="Y44" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36615</v>
       </c>
-      <c r="B45" t="n">
-        <v>124004</v>
-      </c>
-      <c r="C45" t="s">
-        <v>393</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="J45" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="O45" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
         <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -5111,66 +4811,62 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36615</v>
       </c>
-      <c r="B46" t="n">
-        <v>124005</v>
-      </c>
-      <c r="C46" t="s">
-        <v>401</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="J46" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="K46" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="O46" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -5179,436 +4875,416 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>407</v>
-      </c>
-      <c r="X46" t="s">
-        <v>408</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36615</v>
       </c>
-      <c r="B47" t="n">
-        <v>124006</v>
-      </c>
-      <c r="C47" t="s">
-        <v>410</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="J47" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="K47" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="O47" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="X47" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="Y47" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36615</v>
       </c>
-      <c r="B48" t="n">
-        <v>124007</v>
-      </c>
-      <c r="C48" t="s">
-        <v>420</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="J48" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="K48" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="L48" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="O48" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>427</v>
-      </c>
-      <c r="X48" t="s">
-        <v>428</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36615</v>
       </c>
-      <c r="B49" t="n">
-        <v>124008</v>
-      </c>
-      <c r="C49" t="s">
-        <v>430</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>431</v>
+        <v>377</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="J49" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="K49" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="L49" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="O49" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>382</v>
+      </c>
+      <c r="X49" t="s">
+        <v>383</v>
+      </c>
       <c r="Y49" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36615</v>
       </c>
-      <c r="B50" t="n">
-        <v>124009</v>
-      </c>
-      <c r="C50" t="s">
-        <v>437</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="J50" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="K50" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="O50" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
         <v>3</v>
       </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>391</v>
+      </c>
+      <c r="X50" t="s">
+        <v>392</v>
+      </c>
       <c r="Y50" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36615</v>
       </c>
-      <c r="B51" t="n">
-        <v>124010</v>
-      </c>
-      <c r="C51" t="s">
-        <v>445</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="J51" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>399</v>
+      </c>
+      <c r="O51" t="s">
+        <v>86</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
         <v>3</v>
       </c>
-      <c r="N51" t="s">
-        <v>451</v>
-      </c>
-      <c r="O51" t="s">
-        <v>70</v>
-      </c>
-      <c r="P51" t="n">
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
         <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>400</v>
+      </c>
+      <c r="X51" t="s">
+        <v>401</v>
+      </c>
       <c r="Y51" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36615</v>
       </c>
-      <c r="B52" t="n">
-        <v>60801</v>
-      </c>
-      <c r="C52" t="s">
-        <v>453</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="J52" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="K52" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
       <c r="L52" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="O52" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R52" t="n">
         <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
@@ -5620,70 +5296,66 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36615</v>
       </c>
-      <c r="B53" t="n">
-        <v>124011</v>
-      </c>
-      <c r="C53" t="s">
-        <v>460</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>461</v>
+        <v>409</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="J53" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="K53" t="s">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="O53" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
         <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5691,66 +5363,62 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36615</v>
       </c>
-      <c r="B54" t="n">
-        <v>13559</v>
-      </c>
-      <c r="C54" t="s">
-        <v>467</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="J54" t="s">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="K54" t="s">
-        <v>471</v>
+        <v>419</v>
       </c>
       <c r="L54" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>473</v>
+        <v>421</v>
       </c>
       <c r="O54" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
@@ -5762,7 +5430,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55">
@@ -5775,53 +5443,53 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>475</v>
+        <v>424</v>
       </c>
       <c r="J55" t="s">
-        <v>476</v>
+        <v>425</v>
       </c>
       <c r="K55" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5829,66 +5497,62 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>480</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36615</v>
       </c>
-      <c r="B56" t="n">
-        <v>124012</v>
-      </c>
-      <c r="C56" t="s">
-        <v>481</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>482</v>
+        <v>429</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>483</v>
+        <v>430</v>
       </c>
       <c r="J56" t="s">
-        <v>484</v>
+        <v>431</v>
       </c>
       <c r="K56" t="s">
-        <v>485</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>487</v>
+        <v>434</v>
       </c>
       <c r="O56" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
@@ -5900,70 +5564,66 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36615</v>
       </c>
-      <c r="B57" t="n">
-        <v>124013</v>
-      </c>
-      <c r="C57" t="s">
-        <v>489</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="J57" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="K57" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="O57" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5971,7 +5631,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58">
@@ -5984,49 +5644,53 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="J58" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="K58" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="L58" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="O58" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
       <c r="S58" t="n">
         <v>5</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -6034,66 +5698,66 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>500</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36615</v>
       </c>
-      <c r="B59" t="n">
-        <v>124014</v>
-      </c>
-      <c r="C59" t="s">
-        <v>502</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>503</v>
+        <v>448</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
       <c r="J59" t="s">
-        <v>505</v>
+        <v>450</v>
       </c>
       <c r="K59" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>508</v>
+        <v>453</v>
       </c>
       <c r="O59" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
         <v>3</v>
       </c>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -6101,66 +5765,66 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>507</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36615</v>
       </c>
-      <c r="B60" t="n">
-        <v>124015</v>
-      </c>
-      <c r="C60" t="s">
-        <v>509</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
       <c r="J60" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
       <c r="K60" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
       <c r="L60" t="s">
-        <v>514</v>
+        <v>459</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>515</v>
+        <v>453</v>
       </c>
       <c r="O60" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -6168,70 +5832,62 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36615</v>
       </c>
-      <c r="B61" t="n">
-        <v>124016</v>
-      </c>
-      <c r="C61" t="s">
-        <v>516</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>518</v>
+        <v>462</v>
       </c>
       <c r="J61" t="s">
-        <v>519</v>
+        <v>463</v>
       </c>
       <c r="K61" t="s">
-        <v>520</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>522</v>
+        <v>466</v>
       </c>
       <c r="O61" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
       </c>
-      <c r="Q61" t="n">
-        <v>4</v>
-      </c>
-      <c r="R61" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
       <c r="S61" t="n">
         <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -6239,70 +5895,62 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36615</v>
       </c>
-      <c r="B62" t="n">
-        <v>124017</v>
-      </c>
-      <c r="C62" t="s">
-        <v>523</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
       <c r="J62" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="K62" t="s">
-        <v>527</v>
+        <v>470</v>
       </c>
       <c r="L62" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="O62" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>4</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -6310,70 +5958,62 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36615</v>
       </c>
-      <c r="B63" t="n">
-        <v>124018</v>
-      </c>
-      <c r="C63" t="s">
-        <v>530</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>531</v>
+        <v>473</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>532</v>
+        <v>474</v>
       </c>
       <c r="J63" t="s">
-        <v>533</v>
+        <v>475</v>
       </c>
       <c r="K63" t="s">
-        <v>534</v>
+        <v>476</v>
       </c>
       <c r="L63" t="s">
-        <v>535</v>
+        <v>477</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="O63" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -6381,76 +6021,273 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36615</v>
       </c>
-      <c r="B64" t="n">
-        <v>124019</v>
-      </c>
-      <c r="C64" t="s">
-        <v>538</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="J64" t="s">
-        <v>541</v>
+        <v>481</v>
       </c>
       <c r="K64" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="L64" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
-      </c>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>484</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
       <c r="P64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q64" t="n">
-        <v>5</v>
-      </c>
-      <c r="R64" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
       <c r="S64" t="n">
         <v>5</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
-        <v>544</v>
-      </c>
-      <c r="X64" t="s">
-        <v>545</v>
-      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>546</v>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36615</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>485</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>486</v>
+      </c>
+      <c r="J65" t="s">
+        <v>487</v>
+      </c>
+      <c r="K65" t="s">
+        <v>488</v>
+      </c>
+      <c r="L65" t="s">
+        <v>489</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>490</v>
+      </c>
+      <c r="O65" t="s">
+        <v>86</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36615</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>491</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>492</v>
+      </c>
+      <c r="J66" t="s">
+        <v>493</v>
+      </c>
+      <c r="K66" t="s">
+        <v>494</v>
+      </c>
+      <c r="L66" t="s">
+        <v>495</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>496</v>
+      </c>
+      <c r="O66" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36615</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>498</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>499</v>
+      </c>
+      <c r="J67" t="s">
+        <v>500</v>
+      </c>
+      <c r="K67" t="s">
+        <v>501</v>
+      </c>
+      <c r="L67" t="s">
+        <v>502</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>503</v>
+      </c>
+      <c r="X67" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
